--- a/元件与mega2560开发板插接对应表.xlsx
+++ b/元件与mega2560开发板插接对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\【硬件工程与商业项目】\A320 FCU外设项目\Github上传文件夹\HanChan-FCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D2A0A-A3B5-49BB-8597-E9A1AD45E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F973E-EDF7-46CC-9F00-7B92F5CC1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0EDAC526-2055-4185-A441-2B482E58E10B}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
